--- a/WindowsFormsApp1/resources/Assembly.xlsx
+++ b/WindowsFormsApp1/resources/Assembly.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daniel\VS\Test\WindowsFormsApp1\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daniel\VS\Test\WindowsFormsApp1\bin\Assembly\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9BB074-C20D-4CE9-8A88-C2FE36EB378F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0261F927-B63E-46E9-A93A-5DF0694CB3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>WindowsFormsApp1</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>DFS\DFS</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>SchedulerComs</t>
   </si>
 </sst>
 </file>
@@ -394,19 +406,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -428,7 +440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -437,6 +449,17 @@
       </c>
       <c r="C3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -446,18 +469,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006E3A98-2C4F-4C47-8742-A0FE9A8EE356}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -479,7 +502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -490,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -501,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -512,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -523,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -534,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -545,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -554,6 +577,61 @@
       </c>
       <c r="C9" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
